--- a/model_inputs/financial_reports/imaging/VCH.xlsx
+++ b/model_inputs/financial_reports/imaging/VCH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47049DD-9429-4ABC-BADB-3D0CD1F480FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1102A0-B9AF-4574-89BA-3ADE8446232C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,8 +584,8 @@
         <v>1313</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:B7" si="0">C2-D2-E2-F2</f>
-        <v>42308.939999999711</v>
+        <f>C2-D2</f>
+        <v>2934173.26</v>
       </c>
       <c r="C2" s="5">
         <v>3760350.9</v>
@@ -600,8 +600,8 @@
         <v>1353379.1</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G8" si="1">H2-I2-J2-K2</f>
-        <v>39134.830000000075</v>
+        <f>H2-I2</f>
+        <v>2553855.37</v>
       </c>
       <c r="H2" s="5">
         <v>3368788.29</v>
@@ -621,8 +621,8 @@
         <v>1413</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" si="0"/>
-        <v>71223.139999999898</v>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
+        <v>2685717.6799999997</v>
       </c>
       <c r="C3" s="5">
         <v>3667346.05</v>
@@ -637,8 +637,8 @@
         <v>1793874.66</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="1"/>
-        <v>99687.800000000279</v>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
+        <v>2704757.3400000003</v>
       </c>
       <c r="H3" s="5">
         <v>3561474.5500000003</v>
@@ -659,7 +659,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>11504.659999999916</v>
+        <v>2917585.6</v>
       </c>
       <c r="C4" s="5">
         <v>3869028.7800000003</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>99687.800000000047</v>
+        <v>2795238.37</v>
       </c>
       <c r="H4" s="5">
         <v>3662643.09</v>
@@ -696,7 +696,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>27621.759999999544</v>
+        <v>2396207.2299999995</v>
       </c>
       <c r="C5" s="5">
         <v>3308278.2199999997</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>109687.74999999953</v>
+        <v>2895238.3099999996</v>
       </c>
       <c r="H5" s="5">
         <v>3761780.4599999995</v>
@@ -733,7 +733,7 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>46509.169999999925</v>
+        <v>3073350.51</v>
       </c>
       <c r="C6" s="5">
         <v>4030572.1199999996</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>113733.97999999928</v>
+        <v>2899284.5499999993</v>
       </c>
       <c r="H6" s="5">
         <v>3757804.4399999995</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>51609.219999999972</v>
+        <v>3157412.67</v>
       </c>
       <c r="C7" s="5">
         <v>4147439.37</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>116189.63999999943</v>
+        <v>3068890.2099999995</v>
       </c>
       <c r="H7" s="5">
         <v>3934107.0499999993</v>
@@ -806,8 +806,8 @@
         <v>1913</v>
       </c>
       <c r="B8" s="4">
-        <f>C8-D8-E8-F8</f>
-        <v>39044.040000000037</v>
+        <f t="shared" si="0"/>
+        <v>3262456.35</v>
       </c>
       <c r="C8" s="5">
         <v>4285393.5</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>58798.70999999973</v>
+        <v>3085484.2199999997</v>
       </c>
       <c r="H8" s="7">
         <v>4053259.88</v>
@@ -843,8 +843,8 @@
         <v>2013</v>
       </c>
       <c r="B9" s="4">
-        <f>C9-D9-E9-F9</f>
-        <v>43373.69000000041</v>
+        <f t="shared" si="0"/>
+        <v>3784628.5100000007</v>
       </c>
       <c r="C9" s="5">
         <v>4957056.040000001</v>
@@ -859,8 +859,8 @@
         <v>1570068.12</v>
       </c>
       <c r="G9" s="6">
-        <f>H9-I9-J9-K9</f>
-        <v>55872.639999999665</v>
+        <f t="shared" si="1"/>
+        <v>3085484.1199999996</v>
       </c>
       <c r="H9" s="5">
         <v>4115078.8299999996</v>

--- a/model_inputs/financial_reports/imaging/VCH.xlsx
+++ b/model_inputs/financial_reports/imaging/VCH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1102A0-B9AF-4574-89BA-3ADE8446232C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA46600-7425-4A5F-AA69-2745E4594227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,8 +584,8 @@
         <v>1313</v>
       </c>
       <c r="B2" s="4">
-        <f>C2-D2</f>
-        <v>2934173.26</v>
+        <f>C2-D2-E2</f>
+        <v>1395688.0399999998</v>
       </c>
       <c r="C2" s="5">
         <v>3760350.9</v>
@@ -600,8 +600,8 @@
         <v>1353379.1</v>
       </c>
       <c r="G2" s="6">
-        <f>H2-I2</f>
-        <v>2553855.37</v>
+        <f>H2-I2-J2</f>
+        <v>759985.83000000007</v>
       </c>
       <c r="H2" s="5">
         <v>3368788.29</v>
@@ -621,8 +621,8 @@
         <v>1413</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
-        <v>2685717.6799999997</v>
+        <f t="shared" ref="B3:B9" si="0">C3-D3-E3</f>
+        <v>1865097.7999999998</v>
       </c>
       <c r="C3" s="5">
         <v>3667346.05</v>
@@ -637,8 +637,8 @@
         <v>1793874.66</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
-        <v>2704757.3400000003</v>
+        <f t="shared" ref="G3:G9" si="1">H3-I3-J3</f>
+        <v>960887.80000000028</v>
       </c>
       <c r="H3" s="5">
         <v>3561474.5500000003</v>
@@ -659,7 +659,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>2917585.6</v>
+        <v>1733265.02</v>
       </c>
       <c r="C4" s="5">
         <v>3869028.7800000003</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>2795238.37</v>
+        <v>1051368.82</v>
       </c>
       <c r="H4" s="5">
         <v>3662643.09</v>
@@ -696,7 +696,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>2396207.2299999995</v>
+        <v>1220588.9799999995</v>
       </c>
       <c r="C5" s="5">
         <v>3308278.2199999997</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>2895238.3099999996</v>
+        <v>1511368.7599999995</v>
       </c>
       <c r="H5" s="5">
         <v>3761780.4599999995</v>
@@ -733,7 +733,7 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>3073350.51</v>
+        <v>1507148.5699999998</v>
       </c>
       <c r="C6" s="5">
         <v>4030572.1199999996</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>2899284.5499999993</v>
+        <v>1515415.0099999993</v>
       </c>
       <c r="H6" s="5">
         <v>3757804.4399999995</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>3157412.67</v>
+        <v>1219326.48</v>
       </c>
       <c r="C7" s="5">
         <v>4147439.37</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>3068890.2099999995</v>
+        <v>1517870.6699999995</v>
       </c>
       <c r="H7" s="5">
         <v>3934107.0499999993</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>3262456.35</v>
+        <v>1153705.17</v>
       </c>
       <c r="C8" s="5">
         <v>4285393.5</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>3085484.2199999997</v>
+        <v>1077004.6899999997</v>
       </c>
       <c r="H8" s="7">
         <v>4053259.88</v>
@@ -844,7 +844,7 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>3784628.5100000007</v>
+        <v>1613441.8100000005</v>
       </c>
       <c r="C9" s="5">
         <v>4957056.040000001</v>
@@ -860,7 +860,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>3085484.1199999996</v>
+        <v>1077004.5799999996</v>
       </c>
       <c r="H9" s="5">
         <v>4115078.8299999996</v>
